--- a/Assets/06.Table/TestChun.xlsx
+++ b/Assets/06.Table/TestChun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB71A8-CA4F-4D74-A579-06082A347875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C315CD68-4A6E-4A76-9871-0C5E557DB29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestChun" sheetId="1" r:id="rId1"/>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1085,11 +1085,11 @@
       </c>
       <c r="B5" s="23">
         <f>Balance!F12</f>
-        <v>5.1200000000000002E+95</v>
+        <v>5.1E+95</v>
       </c>
       <c r="C5" s="24" t="str">
         <f>VLOOKUP(B5,Balance!F:G,2,FALSE)</f>
-        <v>5120라</v>
+        <v>5100라</v>
       </c>
       <c r="D5" s="25">
         <v>43</v>
@@ -1139,11 +1139,11 @@
       </c>
       <c r="B7" s="23">
         <f>Balance!F14</f>
-        <v>3.3000000000000001E+97</v>
+        <v>3.0000000000000002E+97</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP(B7,Balance!F:G,2,FALSE)</f>
-        <v>33가</v>
+        <v>30가</v>
       </c>
       <c r="D7" s="25">
         <v>43</v>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B8" s="23">
         <f>Balance!F15</f>
-        <v>2.6300000000000002E+98</v>
+        <v>2.6000000000000003E+98</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP(B8,Balance!F:G,2,FALSE)</f>
-        <v>263가</v>
+        <v>260가</v>
       </c>
       <c r="D8" s="25">
         <v>43</v>
@@ -1193,11 +1193,11 @@
       </c>
       <c r="B9" s="23">
         <f>Balance!F16</f>
-        <v>2.0980000000000001E+99</v>
+        <v>2.0000000000000002E+99</v>
       </c>
       <c r="C9" s="24" t="str">
         <f>VLOOKUP(B9,Balance!F:G,2,FALSE)</f>
-        <v>2098가</v>
+        <v>2000가</v>
       </c>
       <c r="D9" s="25">
         <v>43</v>
@@ -1247,11 +1247,11 @@
       </c>
       <c r="B11" s="23">
         <f>Balance!F18</f>
-        <v>1.3999999999999999E+101</v>
+        <v>9.9999999999999998E+100</v>
       </c>
       <c r="C11" s="24" t="str">
         <f>VLOOKUP(B11,Balance!F:G,2,FALSE)</f>
-        <v>14언</v>
+        <v>10언</v>
       </c>
       <c r="D11" s="25">
         <v>43</v>
@@ -1274,11 +1274,11 @@
       </c>
       <c r="B12" s="23">
         <f>Balance!F19</f>
-        <v>1.08E+102</v>
+        <v>9.9999999999999998E+101</v>
       </c>
       <c r="C12" s="24" t="str">
         <f>VLOOKUP(B12,Balance!F:G,2,FALSE)</f>
-        <v>108언</v>
+        <v>100언</v>
       </c>
       <c r="D12" s="25">
         <v>43</v>
@@ -1301,11 +1301,11 @@
       </c>
       <c r="B13" s="23">
         <f>Balance!F20</f>
-        <v>8.6000000000000002E+102</v>
+        <v>8.5000000000000006E+102</v>
       </c>
       <c r="C13" s="24" t="str">
         <f>VLOOKUP(B13,Balance!F:G,2,FALSE)</f>
-        <v>860언</v>
+        <v>850언</v>
       </c>
       <c r="D13" s="25">
         <v>43</v>
@@ -1328,11 +1328,11 @@
       </c>
       <c r="B14" s="23">
         <f>Balance!F21</f>
-        <v>6.8729999999999998E+103</v>
+        <v>6.8000000000000005E+103</v>
       </c>
       <c r="C14" s="24" t="str">
         <f>VLOOKUP(B14,Balance!F:G,2,FALSE)</f>
-        <v>6873언</v>
+        <v>6800언</v>
       </c>
       <c r="D14" s="25">
         <v>43</v>
@@ -1382,11 +1382,11 @@
       </c>
       <c r="B16" s="23">
         <f>Balance!F23</f>
-        <v>4.4000000000000001E+105</v>
+        <v>3.9999999999999998E+105</v>
       </c>
       <c r="C16" s="24" t="str">
         <f>VLOOKUP(B16,Balance!F:G,2,FALSE)</f>
-        <v>44승</v>
+        <v>40승</v>
       </c>
       <c r="D16" s="25">
         <v>43</v>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="B17" s="23">
         <f>Balance!F24</f>
-        <v>3.5200000000000001E+106</v>
+        <v>3.4999999999999998E+106</v>
       </c>
       <c r="C17" s="24" t="str">
         <f>VLOOKUP(B17,Balance!F:G,2,FALSE)</f>
-        <v>352승</v>
+        <v>350승</v>
       </c>
       <c r="D17" s="25">
         <v>43</v>
@@ -1436,11 +1436,11 @@
       </c>
       <c r="B18" s="23">
         <f>Balance!F25</f>
-        <v>2.8150000000000001E+107</v>
+        <v>2.7999999999999998E+107</v>
       </c>
       <c r="C18" s="24" t="str">
         <f>VLOOKUP(B18,Balance!F:G,2,FALSE)</f>
-        <v>2815승</v>
+        <v>2800승</v>
       </c>
       <c r="D18" s="25">
         <v>43</v>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="B20" s="23">
         <f>Balance!F27</f>
-        <v>1.9000000000000002E+109</v>
+        <v>9.9999999999999998E+108</v>
       </c>
       <c r="C20" s="24" t="str">
         <f>VLOOKUP(B20,Balance!F:G,2,FALSE)</f>
-        <v>19마</v>
+        <v>10마</v>
       </c>
       <c r="D20" s="25">
         <v>43</v>
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B21" s="23">
         <f>Balance!F28</f>
-        <v>1.45E+110</v>
+        <v>1.4000000000000001E+110</v>
       </c>
       <c r="C21" s="24" t="str">
         <f>VLOOKUP(B21,Balance!F:G,2,FALSE)</f>
-        <v>145마</v>
+        <v>140마</v>
       </c>
       <c r="D21" s="25">
         <v>43</v>
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B22" s="23">
         <f>Balance!F29</f>
-        <v>1.154E+111</v>
+        <v>1.1E+111</v>
       </c>
       <c r="C22" s="24" t="str">
         <f>VLOOKUP(B22,Balance!F:G,2,FALSE)</f>
-        <v>1154마</v>
+        <v>1100마</v>
       </c>
       <c r="D22" s="25">
         <v>43</v>
@@ -1571,11 +1571,11 @@
       </c>
       <c r="B23" s="23">
         <f>Balance!F30</f>
-        <v>9.2250000000000001E+111</v>
+        <v>9.2000000000000001E+111</v>
       </c>
       <c r="C23" s="24" t="str">
         <f>VLOOKUP(B23,Balance!F:G,2,FALSE)</f>
-        <v>9225마</v>
+        <v>9200마</v>
       </c>
       <c r="D23" s="25">
         <v>43</v>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="B25" s="23">
         <f>Balance!F32</f>
-        <v>5.9999999999999994E+113</v>
+        <v>4.9999999999999994E+113</v>
       </c>
       <c r="C25" s="24" t="str">
         <f>VLOOKUP(B25,Balance!F:G,2,FALSE)</f>
-        <v>60살</v>
+        <v>50살</v>
       </c>
       <c r="D25" s="25">
         <v>43</v>
@@ -1652,11 +1652,11 @@
       </c>
       <c r="B26" s="23">
         <f>Balance!F33</f>
-        <v>4.7299999999999994E+114</v>
+        <v>4.6999999999999995E+114</v>
       </c>
       <c r="C26" s="24" t="str">
         <f>VLOOKUP(B26,Balance!F:G,2,FALSE)</f>
-        <v>473살</v>
+        <v>470살</v>
       </c>
       <c r="D26" s="25">
         <v>43</v>
@@ -1679,11 +1679,11 @@
       </c>
       <c r="B27" s="23">
         <f>Balance!F34</f>
-        <v>3.7789999999999999E+115</v>
+        <v>3.6999999999999996E+115</v>
       </c>
       <c r="C27" s="24" t="str">
         <f>VLOOKUP(B27,Balance!F:G,2,FALSE)</f>
-        <v>3779살</v>
+        <v>3700살</v>
       </c>
       <c r="D27" s="25">
         <v>43</v>
@@ -1698,6 +1698,114 @@
       <c r="G27" s="24">
         <f>VLOOKUP(B27,Balance!F:L,7,FALSE)</f>
         <v>7.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="22">
+        <v>26</v>
+      </c>
+      <c r="B28" s="23">
+        <f>Balance!F35</f>
+        <v>4.0000000000000001E+116</v>
+      </c>
+      <c r="C28" s="24" t="str">
+        <f>VLOOKUP(B28,Balance!F:G,2,FALSE)</f>
+        <v>4섬</v>
+      </c>
+      <c r="D28" s="25">
+        <v>43</v>
+      </c>
+      <c r="E28" s="24">
+        <f>VLOOKUP(B28,Balance!F:K,6,FALSE)</f>
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="F28" s="25">
+        <v>43</v>
+      </c>
+      <c r="G28" s="24">
+        <f>VLOOKUP(B28,Balance!F:L,7,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="22">
+        <v>27</v>
+      </c>
+      <c r="B29" s="23">
+        <f>Balance!F36</f>
+        <v>2.0000000000000001E+117</v>
+      </c>
+      <c r="C29" s="24" t="str">
+        <f>VLOOKUP(B29,Balance!F:G,2,FALSE)</f>
+        <v>20섬</v>
+      </c>
+      <c r="D29" s="25">
+        <v>43</v>
+      </c>
+      <c r="E29" s="24">
+        <f>VLOOKUP(B29,Balance!F:K,6,FALSE)</f>
+        <v>1.5259999999999998</v>
+      </c>
+      <c r="F29" s="25">
+        <v>43</v>
+      </c>
+      <c r="G29" s="24">
+        <f>VLOOKUP(B29,Balance!F:L,7,FALSE)</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="22">
+        <v>28</v>
+      </c>
+      <c r="B30" s="23">
+        <f>Balance!F37</f>
+        <v>1.9000000000000001E+118</v>
+      </c>
+      <c r="C30" s="24" t="str">
+        <f>VLOOKUP(B30,Balance!F:G,2,FALSE)</f>
+        <v>190섬</v>
+      </c>
+      <c r="D30" s="25">
+        <v>43</v>
+      </c>
+      <c r="E30" s="24">
+        <f>VLOOKUP(B30,Balance!F:K,6,FALSE)</f>
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="F30" s="25">
+        <v>43</v>
+      </c>
+      <c r="G30" s="24">
+        <f>VLOOKUP(B30,Balance!F:L,7,FALSE)</f>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="22">
+        <v>29</v>
+      </c>
+      <c r="B31" s="23">
+        <f>Balance!F38</f>
+        <v>1.5E+119</v>
+      </c>
+      <c r="C31" s="24" t="str">
+        <f>VLOOKUP(B31,Balance!F:G,2,FALSE)</f>
+        <v>1500섬</v>
+      </c>
+      <c r="D31" s="25">
+        <v>43</v>
+      </c>
+      <c r="E31" s="24">
+        <f>VLOOKUP(B31,Balance!F:K,6,FALSE)</f>
+        <v>1.573</v>
+      </c>
+      <c r="F31" s="25">
+        <v>43</v>
+      </c>
+      <c r="G31" s="24">
+        <f>VLOOKUP(B31,Balance!F:L,7,FALSE)</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1820,7 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1864,11 +1972,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="17">
-        <f>ROUNDUP(H9,0)*J9</f>
+        <f>IF(H9&lt;10,ROUNDUP(H9,0),IF(H9&lt;100,ROUNDDOWN(H9,-1),IF(H9&lt;1000,ROUNDDOWN(H9,-1),IF(H9&lt;10000,ROUNDDOWN(H9,-2),0))))*J9</f>
         <v>1E+93</v>
       </c>
       <c r="G9" s="17" t="str">
-        <f>ROUNDUP(H9,0)&amp;I9</f>
+        <f>IF(H9&lt;10,ROUNDUP(H9,0),IF(H9&lt;100,ROUNDDOWN(H9,-1),IF(H9&lt;1000,ROUNDDOWN(H9,-1),IF(H9&lt;10000,ROUNDDOWN(H9,-2),0))))&amp;I9</f>
         <v>10라</v>
       </c>
       <c r="H9" s="17">
@@ -1915,11 +2023,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" ref="F10:F66" si="3">ROUNDUP(H10,0)*J10</f>
+        <f t="shared" ref="F10:F66" si="3">IF(H10&lt;10,ROUNDUP(H10,0),IF(H10&lt;100,ROUNDDOWN(H10,-1),IF(H10&lt;1000,ROUNDDOWN(H10,-1),IF(H10&lt;10000,ROUNDDOWN(H10,-2),0))))*J10</f>
         <v>8.0000000000000003E+93</v>
       </c>
       <c r="G10" s="17" t="str">
-        <f t="shared" ref="G10:G66" si="4">ROUNDUP(H10,0)&amp;I10</f>
+        <f t="shared" ref="G10:G66" si="4">IF(H10&lt;10,ROUNDUP(H10,0),IF(H10&lt;100,ROUNDDOWN(H10,-1),IF(H10&lt;1000,ROUNDDOWN(H10,-1),IF(H10&lt;10000,ROUNDDOWN(H10,-2),0))))&amp;I10</f>
         <v>80라</v>
       </c>
       <c r="H10" s="17">
@@ -2016,11 +2124,11 @@
       </c>
       <c r="F12" s="17">
         <f t="shared" si="3"/>
-        <v>5.1200000000000002E+95</v>
+        <v>5.1E+95</v>
       </c>
       <c r="G12" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>5120라</v>
+        <v>5100라</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
@@ -2124,11 +2232,11 @@
       </c>
       <c r="F14" s="17">
         <f t="shared" si="3"/>
-        <v>3.3000000000000001E+97</v>
+        <v>3.0000000000000002E+97</v>
       </c>
       <c r="G14" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>33가</v>
+        <v>30가</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="6"/>
@@ -2172,11 +2280,11 @@
       </c>
       <c r="F15" s="17">
         <f t="shared" si="3"/>
-        <v>2.6300000000000002E+98</v>
+        <v>2.6000000000000003E+98</v>
       </c>
       <c r="G15" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>263가</v>
+        <v>260가</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="6"/>
@@ -2224,11 +2332,11 @@
       </c>
       <c r="F16" s="17">
         <f t="shared" si="3"/>
-        <v>2.0980000000000001E+99</v>
+        <v>2.0000000000000002E+99</v>
       </c>
       <c r="G16" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2098가</v>
+        <v>2000가</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
@@ -2332,11 +2440,11 @@
       </c>
       <c r="F18" s="17">
         <f t="shared" si="3"/>
-        <v>1.3999999999999999E+101</v>
+        <v>9.9999999999999998E+100</v>
       </c>
       <c r="G18" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>14언</v>
+        <v>10언</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
@@ -2386,11 +2494,11 @@
       </c>
       <c r="F19" s="17">
         <f t="shared" si="3"/>
-        <v>1.08E+102</v>
+        <v>9.9999999999999998E+101</v>
       </c>
       <c r="G19" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>108언</v>
+        <v>100언</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
@@ -2440,11 +2548,11 @@
       </c>
       <c r="F20" s="17">
         <f t="shared" si="3"/>
-        <v>8.6000000000000002E+102</v>
+        <v>8.5000000000000006E+102</v>
       </c>
       <c r="G20" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>860언</v>
+        <v>850언</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
@@ -2494,11 +2602,11 @@
       </c>
       <c r="F21" s="17">
         <f t="shared" si="3"/>
-        <v>6.8729999999999998E+103</v>
+        <v>6.8000000000000005E+103</v>
       </c>
       <c r="G21" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>6873언</v>
+        <v>6800언</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="6"/>
@@ -2589,11 +2697,11 @@
       </c>
       <c r="F23" s="17">
         <f t="shared" si="3"/>
-        <v>4.4000000000000001E+105</v>
+        <v>3.9999999999999998E+105</v>
       </c>
       <c r="G23" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>44승</v>
+        <v>40승</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="6"/>
@@ -2636,11 +2744,11 @@
       </c>
       <c r="F24" s="17">
         <f t="shared" si="3"/>
-        <v>3.5200000000000001E+106</v>
+        <v>3.4999999999999998E+106</v>
       </c>
       <c r="G24" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>352승</v>
+        <v>350승</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="6"/>
@@ -2683,11 +2791,11 @@
       </c>
       <c r="F25" s="17">
         <f t="shared" si="3"/>
-        <v>2.8150000000000001E+107</v>
+        <v>2.7999999999999998E+107</v>
       </c>
       <c r="G25" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2815승</v>
+        <v>2800승</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="6"/>
@@ -2777,11 +2885,11 @@
       </c>
       <c r="F27" s="17">
         <f t="shared" si="3"/>
-        <v>1.9000000000000002E+109</v>
+        <v>9.9999999999999998E+108</v>
       </c>
       <c r="G27" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>19마</v>
+        <v>10마</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="6"/>
@@ -2824,11 +2932,11 @@
       </c>
       <c r="F28" s="17">
         <f t="shared" si="3"/>
-        <v>1.45E+110</v>
+        <v>1.4000000000000001E+110</v>
       </c>
       <c r="G28" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>145마</v>
+        <v>140마</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="6"/>
@@ -2871,11 +2979,11 @@
       </c>
       <c r="F29" s="17">
         <f t="shared" si="3"/>
-        <v>1.154E+111</v>
+        <v>1.1E+111</v>
       </c>
       <c r="G29" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1154마</v>
+        <v>1100마</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="6"/>
@@ -2918,11 +3026,11 @@
       </c>
       <c r="F30" s="17">
         <f t="shared" si="3"/>
-        <v>9.2250000000000001E+111</v>
+        <v>9.2000000000000001E+111</v>
       </c>
       <c r="G30" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>9225마</v>
+        <v>9200마</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="6"/>
@@ -3012,11 +3120,11 @@
       </c>
       <c r="F32" s="17">
         <f t="shared" si="3"/>
-        <v>5.9999999999999994E+113</v>
+        <v>4.9999999999999994E+113</v>
       </c>
       <c r="G32" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>60살</v>
+        <v>50살</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="6"/>
@@ -3060,11 +3168,11 @@
       </c>
       <c r="F33" s="17">
         <f t="shared" si="3"/>
-        <v>4.7299999999999994E+114</v>
+        <v>4.6999999999999995E+114</v>
       </c>
       <c r="G33" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>473살</v>
+        <v>470살</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="6"/>
@@ -3117,11 +3225,11 @@
       </c>
       <c r="F34" s="17">
         <f t="shared" si="3"/>
-        <v>3.7789999999999999E+115</v>
+        <v>3.6999999999999996E+115</v>
       </c>
       <c r="G34" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>3779살</v>
+        <v>3700살</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="6"/>
@@ -3231,11 +3339,11 @@
       </c>
       <c r="F36" s="17">
         <f t="shared" si="3"/>
-        <v>2.4999999999999999E+117</v>
+        <v>2.0000000000000001E+117</v>
       </c>
       <c r="G36" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>25섬</v>
+        <v>20섬</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="6"/>
@@ -3288,11 +3396,11 @@
       </c>
       <c r="F37" s="17">
         <f t="shared" si="3"/>
-        <v>1.94E+118</v>
+        <v>1.9000000000000001E+118</v>
       </c>
       <c r="G37" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>194섬</v>
+        <v>190섬</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="6"/>
@@ -3345,11 +3453,11 @@
       </c>
       <c r="F38" s="17">
         <f t="shared" si="3"/>
-        <v>1.548E+119</v>
+        <v>1.5E+119</v>
       </c>
       <c r="G38" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1548섬</v>
+        <v>1500섬</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="6"/>
@@ -3496,11 +3604,11 @@
       </c>
       <c r="F41" s="17">
         <f t="shared" si="3"/>
-        <v>7.9999999999999994E+121</v>
+        <v>6.9999999999999999E+121</v>
       </c>
       <c r="G41" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>80a</v>
+        <v>70a</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="6"/>
@@ -3529,11 +3637,11 @@
       </c>
       <c r="F42" s="17">
         <f t="shared" si="3"/>
-        <v>6.3399999999999999E+122</v>
+        <v>6.3000000000000001E+122</v>
       </c>
       <c r="G42" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>634a</v>
+        <v>630a</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="6"/>
@@ -3562,11 +3670,11 @@
       </c>
       <c r="F43" s="17">
         <f t="shared" si="3"/>
-        <v>5.0719999999999999E+123</v>
+        <v>4.9999999999999997E+123</v>
       </c>
       <c r="G43" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>5072a</v>
+        <v>5000a</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="6"/>
@@ -3628,11 +3736,11 @@
       </c>
       <c r="F45" s="17">
         <f t="shared" si="3"/>
-        <v>3.2999999999999997E+125</v>
+        <v>2.9999999999999998E+125</v>
       </c>
       <c r="G45" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>33b</v>
+        <v>30b</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="6"/>
@@ -3661,11 +3769,11 @@
       </c>
       <c r="F46" s="17">
         <f t="shared" si="3"/>
-        <v>2.6E+126</v>
+        <v>2.4999999999999999E+126</v>
       </c>
       <c r="G46" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>260b</v>
+        <v>250b</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="6"/>
@@ -3694,11 +3802,11 @@
       </c>
       <c r="F47" s="17">
         <f t="shared" si="3"/>
-        <v>2.0779999999999999E+127</v>
+        <v>1.9999999999999999E+127</v>
       </c>
       <c r="G47" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2078b</v>
+        <v>2000b</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="6"/>
@@ -3760,11 +3868,11 @@
       </c>
       <c r="F49" s="17">
         <f t="shared" si="3"/>
-        <v>1.4000000000000002E+129</v>
+        <v>1E+129</v>
       </c>
       <c r="G49" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>14c</v>
+        <v>10c</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="6"/>
@@ -3793,11 +3901,11 @@
       </c>
       <c r="F50" s="17">
         <f t="shared" si="3"/>
-        <v>1.0700000000000001E+130</v>
+        <v>1.0000000000000001E+130</v>
       </c>
       <c r="G50" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>107c</v>
+        <v>100c</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="6"/>
@@ -3826,11 +3934,11 @@
       </c>
       <c r="F51" s="17">
         <f t="shared" si="3"/>
-        <v>8.510000000000001E+130</v>
+        <v>8.5000000000000006E+130</v>
       </c>
       <c r="G51" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>851c</v>
+        <v>850c</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="6"/>
@@ -3859,11 +3967,11 @@
       </c>
       <c r="F52" s="17">
         <f t="shared" si="3"/>
-        <v>6.8070000000000007E+131</v>
+        <v>6.8000000000000005E+131</v>
       </c>
       <c r="G52" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>6807c</v>
+        <v>6800c</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="6"/>
@@ -3925,11 +4033,11 @@
       </c>
       <c r="F54" s="17">
         <f t="shared" si="3"/>
-        <v>4.3999999999999999E+133</v>
+        <v>4.0000000000000001E+133</v>
       </c>
       <c r="G54" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>44d</v>
+        <v>40d</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="6"/>
@@ -3958,11 +4066,11 @@
       </c>
       <c r="F55" s="17">
         <f t="shared" si="3"/>
-        <v>3.4899999999999999E+134</v>
+        <v>3.3999999999999998E+134</v>
       </c>
       <c r="G55" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>349d</v>
+        <v>340d</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="6"/>
@@ -3991,11 +4099,11 @@
       </c>
       <c r="F56" s="17">
         <f t="shared" si="3"/>
-        <v>2.789E+135</v>
+        <v>2.6999999999999998E+135</v>
       </c>
       <c r="G56" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2789d</v>
+        <v>2700d</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="6"/>
@@ -4061,7 +4169,7 @@
       </c>
       <c r="G58" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="6"/>
@@ -4094,7 +4202,7 @@
       </c>
       <c r="G59" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1430</v>
+        <v>1400</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="6"/>
@@ -4127,7 +4235,7 @@
       </c>
       <c r="G60" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>11430</v>
+        <v>11000</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="6"/>
@@ -4160,7 +4268,7 @@
       </c>
       <c r="G61" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>91370</v>
+        <v>91000</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="6"/>

--- a/Assets/06.Table/TestChun.xlsx
+++ b/Assets/06.Table/TestChun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C315CD68-4A6E-4A76-9871-0C5E557DB29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5FD914-821F-4EF0-A144-B1AA854031C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestChun" sheetId="1" r:id="rId1"/>
@@ -303,23 +303,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1808,6 +1808,276 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="22">
+        <v>30</v>
+      </c>
+      <c r="B32" s="23">
+        <f>Balance!F39</f>
+        <v>2E+120</v>
+      </c>
+      <c r="C32" s="24" t="str">
+        <f>VLOOKUP(B32,Balance!F:G,2,FALSE)</f>
+        <v>2찰</v>
+      </c>
+      <c r="D32" s="25">
+        <v>43</v>
+      </c>
+      <c r="E32" s="24">
+        <f>VLOOKUP(B32,Balance!F:K,6,FALSE)</f>
+        <v>1.597</v>
+      </c>
+      <c r="F32" s="25">
+        <v>43</v>
+      </c>
+      <c r="G32" s="24">
+        <f>VLOOKUP(B32,Balance!F:L,7,FALSE)</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="22">
+        <v>31</v>
+      </c>
+      <c r="B33" s="23">
+        <f>Balance!F40</f>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="C33" s="24" t="str">
+        <f>VLOOKUP(B33,Balance!F:G,2,FALSE)</f>
+        <v>10찰</v>
+      </c>
+      <c r="D33" s="25">
+        <v>43</v>
+      </c>
+      <c r="E33" s="24">
+        <f>VLOOKUP(B33,Balance!F:K,6,FALSE)</f>
+        <v>1.621</v>
+      </c>
+      <c r="F33" s="25">
+        <v>43</v>
+      </c>
+      <c r="G33" s="24">
+        <f>VLOOKUP(B33,Balance!F:L,7,FALSE)</f>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="22">
+        <v>32</v>
+      </c>
+      <c r="B34" s="23">
+        <f>Balance!F41</f>
+        <v>6.9999999999999999E+121</v>
+      </c>
+      <c r="C34" s="24" t="str">
+        <f>VLOOKUP(B34,Balance!F:G,2,FALSE)</f>
+        <v>70찰</v>
+      </c>
+      <c r="D34" s="25">
+        <v>43</v>
+      </c>
+      <c r="E34" s="24">
+        <f>VLOOKUP(B34,Balance!F:K,6,FALSE)</f>
+        <v>1.6459999999999999</v>
+      </c>
+      <c r="F34" s="25">
+        <v>43</v>
+      </c>
+      <c r="G34" s="24">
+        <f>VLOOKUP(B34,Balance!F:L,7,FALSE)</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="22">
+        <v>33</v>
+      </c>
+      <c r="B35" s="23">
+        <f>Balance!F42</f>
+        <v>6.3000000000000001E+122</v>
+      </c>
+      <c r="C35" s="24" t="str">
+        <f>VLOOKUP(B35,Balance!F:G,2,FALSE)</f>
+        <v>630찰</v>
+      </c>
+      <c r="D35" s="25">
+        <v>43</v>
+      </c>
+      <c r="E35" s="24">
+        <f>VLOOKUP(B35,Balance!F:K,6,FALSE)</f>
+        <v>1.6709999999999998</v>
+      </c>
+      <c r="F35" s="25">
+        <v>43</v>
+      </c>
+      <c r="G35" s="24">
+        <f>VLOOKUP(B35,Balance!F:L,7,FALSE)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="22">
+        <v>34</v>
+      </c>
+      <c r="B36" s="23">
+        <f>Balance!F43</f>
+        <v>4.9999999999999997E+123</v>
+      </c>
+      <c r="C36" s="24" t="str">
+        <f>VLOOKUP(B36,Balance!F:G,2,FALSE)</f>
+        <v>5000찰</v>
+      </c>
+      <c r="D36" s="25">
+        <v>43</v>
+      </c>
+      <c r="E36" s="24">
+        <f>VLOOKUP(B36,Balance!F:K,6,FALSE)</f>
+        <v>1.6969999999999998</v>
+      </c>
+      <c r="F36" s="25">
+        <v>43</v>
+      </c>
+      <c r="G36" s="24">
+        <f>VLOOKUP(B36,Balance!F:L,7,FALSE)</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="22">
+        <v>35</v>
+      </c>
+      <c r="B37" s="23">
+        <f>Balance!F44</f>
+        <v>4.9999999999999996E+124</v>
+      </c>
+      <c r="C37" s="24" t="str">
+        <f>VLOOKUP(B37,Balance!F:G,2,FALSE)</f>
+        <v>5교</v>
+      </c>
+      <c r="D37" s="25">
+        <v>43</v>
+      </c>
+      <c r="E37" s="24">
+        <f>VLOOKUP(B37,Balance!F:K,6,FALSE)</f>
+        <v>1.7229999999999999</v>
+      </c>
+      <c r="F37" s="25">
+        <v>43</v>
+      </c>
+      <c r="G37" s="24">
+        <f>VLOOKUP(B37,Balance!F:L,7,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="22">
+        <v>36</v>
+      </c>
+      <c r="B38" s="23">
+        <f>Balance!F45</f>
+        <v>2.9999999999999998E+125</v>
+      </c>
+      <c r="C38" s="24" t="str">
+        <f>VLOOKUP(B38,Balance!F:G,2,FALSE)</f>
+        <v>30교</v>
+      </c>
+      <c r="D38" s="25">
+        <v>43</v>
+      </c>
+      <c r="E38" s="24">
+        <f>VLOOKUP(B38,Balance!F:K,6,FALSE)</f>
+        <v>1.7489999999999999</v>
+      </c>
+      <c r="F38" s="25">
+        <v>43</v>
+      </c>
+      <c r="G38" s="24">
+        <f>VLOOKUP(B38,Balance!F:L,7,FALSE)</f>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="22">
+        <v>37</v>
+      </c>
+      <c r="B39" s="23">
+        <f>Balance!F46</f>
+        <v>2.4999999999999999E+126</v>
+      </c>
+      <c r="C39" s="24" t="str">
+        <f>VLOOKUP(B39,Balance!F:G,2,FALSE)</f>
+        <v>250교</v>
+      </c>
+      <c r="D39" s="25">
+        <v>43</v>
+      </c>
+      <c r="E39" s="24">
+        <f>VLOOKUP(B39,Balance!F:K,6,FALSE)</f>
+        <v>1.7759999999999998</v>
+      </c>
+      <c r="F39" s="25">
+        <v>43</v>
+      </c>
+      <c r="G39" s="24">
+        <f>VLOOKUP(B39,Balance!F:L,7,FALSE)</f>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="22">
+        <v>38</v>
+      </c>
+      <c r="B40" s="23">
+        <f>Balance!F47</f>
+        <v>1.9999999999999999E+127</v>
+      </c>
+      <c r="C40" s="24" t="str">
+        <f>VLOOKUP(B40,Balance!F:G,2,FALSE)</f>
+        <v>2000교</v>
+      </c>
+      <c r="D40" s="25">
+        <v>43</v>
+      </c>
+      <c r="E40" s="24">
+        <f>VLOOKUP(B40,Balance!F:K,6,FALSE)</f>
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="F40" s="25">
+        <v>43</v>
+      </c>
+      <c r="G40" s="24">
+        <f>VLOOKUP(B40,Balance!F:L,7,FALSE)</f>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="22">
+        <v>39</v>
+      </c>
+      <c r="B41" s="23">
+        <f>Balance!F48</f>
+        <v>2.0000000000000002E+128</v>
+      </c>
+      <c r="C41" s="24" t="str">
+        <f>VLOOKUP(B41,Balance!F:G,2,FALSE)</f>
+        <v>2위</v>
+      </c>
+      <c r="D41" s="25">
+        <v>43</v>
+      </c>
+      <c r="E41" s="24">
+        <f>VLOOKUP(B41,Balance!F:K,6,FALSE)</f>
+        <v>1.831</v>
+      </c>
+      <c r="F41" s="25">
+        <v>43</v>
+      </c>
+      <c r="G41" s="24">
+        <f>VLOOKUP(B41,Balance!F:L,7,FALSE)</f>
+        <v>10.4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1819,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5258EE1-BFEF-4662-861D-3326022E50E6}">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1965,7 +2235,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="13"/>
       <c r="E9" s="16">
@@ -3424,7 +3694,7 @@
       </c>
       <c r="M37" s="10"/>
       <c r="N37" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O37" s="16">
         <v>120</v>
@@ -3481,7 +3751,7 @@
       </c>
       <c r="M38" s="10"/>
       <c r="N38" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O38" s="16">
         <v>124</v>
@@ -3514,7 +3784,7 @@
       </c>
       <c r="G39" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2a</v>
+        <v>2찰</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="6"/>
@@ -3522,7 +3792,7 @@
       </c>
       <c r="I39" s="16" t="str" cm="1">
         <f t="array" ref="I39">IF(AND(H38&gt;100,H39&lt;100),INDEX(N:N,MATCH(I38,N:N,0)+1,0),I38)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J39" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3537,7 +3807,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O39" s="16">
         <v>128</v>
@@ -3561,7 +3831,7 @@
       </c>
       <c r="G40" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>10a</v>
+        <v>10찰</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="6"/>
@@ -3569,7 +3839,7 @@
       </c>
       <c r="I40" s="16" t="str" cm="1">
         <f t="array" ref="I40">IF(AND(H39&gt;100,H40&lt;100),INDEX(N:N,MATCH(I39,N:N,0)+1,0),I39)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J40" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3584,7 +3854,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O40" s="16">
         <v>132</v>
@@ -3608,7 +3878,7 @@
       </c>
       <c r="G41" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>70a</v>
+        <v>70찰</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="6"/>
@@ -3616,7 +3886,7 @@
       </c>
       <c r="I41" s="16" t="str" cm="1">
         <f t="array" ref="I41">IF(AND(H40&gt;100,H41&lt;100),INDEX(N:N,MATCH(I40,N:N,0)+1,0),I40)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J41" s="16" t="str">
         <f t="shared" ref="J41:J66" si="9">VLOOKUP(I41,N:Q,4,FALSE)</f>
@@ -3641,7 +3911,7 @@
       </c>
       <c r="G42" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>630a</v>
+        <v>630찰</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="6"/>
@@ -3649,7 +3919,7 @@
       </c>
       <c r="I42" s="16" t="str" cm="1">
         <f t="array" ref="I42">IF(AND(H41&gt;100,H42&lt;100),INDEX(N:N,MATCH(I41,N:N,0)+1,0),I41)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J42" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3674,7 +3944,7 @@
       </c>
       <c r="G43" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>5000a</v>
+        <v>5000찰</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="6"/>
@@ -3682,7 +3952,7 @@
       </c>
       <c r="I43" s="16" t="str" cm="1">
         <f t="array" ref="I43">IF(AND(H42&gt;100,H43&lt;100),INDEX(N:N,MATCH(I42,N:N,0)+1,0),I42)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J43" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3707,7 +3977,7 @@
       </c>
       <c r="G44" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>5b</v>
+        <v>5교</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="6"/>
@@ -3715,7 +3985,7 @@
       </c>
       <c r="I44" s="16" t="str" cm="1">
         <f t="array" ref="I44">IF(AND(H43&gt;100,H44&lt;100),INDEX(N:N,MATCH(I43,N:N,0)+1,0),I43)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J44" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3740,7 +4010,7 @@
       </c>
       <c r="G45" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>30b</v>
+        <v>30교</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="6"/>
@@ -3748,7 +4018,7 @@
       </c>
       <c r="I45" s="16" t="str" cm="1">
         <f t="array" ref="I45">IF(AND(H44&gt;100,H45&lt;100),INDEX(N:N,MATCH(I44,N:N,0)+1,0),I44)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J45" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3773,7 +4043,7 @@
       </c>
       <c r="G46" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>250b</v>
+        <v>250교</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="6"/>
@@ -3781,7 +4051,7 @@
       </c>
       <c r="I46" s="16" t="str" cm="1">
         <f t="array" ref="I46">IF(AND(H45&gt;100,H46&lt;100),INDEX(N:N,MATCH(I45,N:N,0)+1,0),I45)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J46" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3806,7 +4076,7 @@
       </c>
       <c r="G47" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2000b</v>
+        <v>2000교</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="6"/>
@@ -3814,7 +4084,7 @@
       </c>
       <c r="I47" s="16" t="str" cm="1">
         <f t="array" ref="I47">IF(AND(H46&gt;100,H47&lt;100),INDEX(N:N,MATCH(I46,N:N,0)+1,0),I46)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J47" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3839,7 +4109,7 @@
       </c>
       <c r="G48" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2c</v>
+        <v>2위</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="6"/>
@@ -3847,7 +4117,7 @@
       </c>
       <c r="I48" s="16" t="str" cm="1">
         <f t="array" ref="I48">IF(AND(H47&gt;100,H48&lt;100),INDEX(N:N,MATCH(I47,N:N,0)+1,0),I47)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J48" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3872,7 +4142,7 @@
       </c>
       <c r="G49" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>10c</v>
+        <v>10위</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="6"/>
@@ -3880,7 +4150,7 @@
       </c>
       <c r="I49" s="16" t="str" cm="1">
         <f t="array" ref="I49">IF(AND(H48&gt;100,H49&lt;100),INDEX(N:N,MATCH(I48,N:N,0)+1,0),I48)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J49" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3905,7 +4175,7 @@
       </c>
       <c r="G50" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>100c</v>
+        <v>100위</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="6"/>
@@ -3913,7 +4183,7 @@
       </c>
       <c r="I50" s="16" t="str" cm="1">
         <f t="array" ref="I50">IF(AND(H49&gt;100,H50&lt;100),INDEX(N:N,MATCH(I49,N:N,0)+1,0),I49)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J50" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3938,7 +4208,7 @@
       </c>
       <c r="G51" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>850c</v>
+        <v>850위</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="6"/>
@@ -3946,7 +4216,7 @@
       </c>
       <c r="I51" s="16" t="str" cm="1">
         <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;100),INDEX(N:N,MATCH(I50,N:N,0)+1,0),I50)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J51" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3971,7 +4241,7 @@
       </c>
       <c r="G52" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>6800c</v>
+        <v>6800위</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="6"/>
@@ -3979,7 +4249,7 @@
       </c>
       <c r="I52" s="16" t="str" cm="1">
         <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;100),INDEX(N:N,MATCH(I51,N:N,0)+1,0),I51)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J52" s="16" t="str">
         <f t="shared" si="9"/>

--- a/Assets/06.Table/TestChun.xlsx
+++ b/Assets/06.Table/TestChun.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5FD914-821F-4EF0-A144-B1AA854031C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30974D1-A4D3-4896-8239-F4C1868060B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2022,60 +2022,6 @@
       <c r="G39" s="24">
         <f>VLOOKUP(B39,Balance!F:L,7,FALSE)</f>
         <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="22">
-        <v>38</v>
-      </c>
-      <c r="B40" s="23">
-        <f>Balance!F47</f>
-        <v>1.9999999999999999E+127</v>
-      </c>
-      <c r="C40" s="24" t="str">
-        <f>VLOOKUP(B40,Balance!F:G,2,FALSE)</f>
-        <v>2000교</v>
-      </c>
-      <c r="D40" s="25">
-        <v>43</v>
-      </c>
-      <c r="E40" s="24">
-        <f>VLOOKUP(B40,Balance!F:K,6,FALSE)</f>
-        <v>1.8029999999999999</v>
-      </c>
-      <c r="F40" s="25">
-        <v>43</v>
-      </c>
-      <c r="G40" s="24">
-        <f>VLOOKUP(B40,Balance!F:L,7,FALSE)</f>
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="22">
-        <v>39</v>
-      </c>
-      <c r="B41" s="23">
-        <f>Balance!F48</f>
-        <v>2.0000000000000002E+128</v>
-      </c>
-      <c r="C41" s="24" t="str">
-        <f>VLOOKUP(B41,Balance!F:G,2,FALSE)</f>
-        <v>2위</v>
-      </c>
-      <c r="D41" s="25">
-        <v>43</v>
-      </c>
-      <c r="E41" s="24">
-        <f>VLOOKUP(B41,Balance!F:K,6,FALSE)</f>
-        <v>1.831</v>
-      </c>
-      <c r="F41" s="25">
-        <v>43</v>
-      </c>
-      <c r="G41" s="24">
-        <f>VLOOKUP(B41,Balance!F:L,7,FALSE)</f>
-        <v>10.4</v>
       </c>
     </row>
   </sheetData>
